--- a/va_facility_data_2025-02-20/Ocala VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ocala%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Ocala VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ocala%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4cc14cfa59b64a8abd1d114fd8017670"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6615d1014dc543699f32aa7f17579d16"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra2f1a6744dec44ca858fb47fb24154f2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rea7845ba11a84b45bec9eb441399b62e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb0b07ac5e90040be93fb6d6e258e2a54"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R37e9d60754a748d390e08751d0f51c64"/>
   </x:sheets>
 </x:workbook>
 </file>
